--- a/NEW HR/FLORES, RICHARD.xlsx
+++ b/NEW HR/FLORES, RICHARD.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="71">
   <si>
     <t>PERIOD</t>
   </si>
@@ -251,6 +251,12 @@
   </si>
   <si>
     <t>1/23,24/2023</t>
+  </si>
+  <si>
+    <t>4/27,28, 5/1/2023</t>
+  </si>
+  <si>
+    <t>CENRO</t>
   </si>
 </sst>
 </file>
@@ -641,17 +647,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -661,6 +664,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1583,14 +1589,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -1602,14 +1608,14 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="53"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -1623,14 +1629,14 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -1663,18 +1669,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3844,17 +3850,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -3890,9 +3896,9 @@
   <dimension ref="A2:K75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A12" activePane="bottomLeft"/>
-      <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <pane ySplit="3690" topLeftCell="A9" activePane="bottomLeft"/>
+      <selection activeCell="F4" sqref="F4:G4"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3922,14 +3928,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -3941,14 +3947,14 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="53"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -3962,14 +3968,16 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="F4" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="54"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -4002,18 +4010,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -4070,7 +4078,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>138.75</v>
+        <v>135.75</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -4448,8 +4456,12 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="42"/>
-      <c r="B27" s="21"/>
+      <c r="A27" s="42">
+        <v>45047</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>45</v>
+      </c>
       <c r="C27" s="14"/>
       <c r="D27" s="41"/>
       <c r="E27" s="10"/>
@@ -4458,10 +4470,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H27" s="41"/>
+      <c r="H27" s="41">
+        <v>3</v>
+      </c>
       <c r="I27" s="10"/>
       <c r="J27" s="12"/>
-      <c r="K27" s="21"/>
+      <c r="K27" s="21" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="42"/>

--- a/NEW HR/FLORES, RICHARD.xlsx
+++ b/NEW HR/FLORES, RICHARD.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="72">
   <si>
     <t>PERIOD</t>
   </si>
@@ -257,6 +257,9 @@
   </si>
   <si>
     <t>CENRO</t>
+  </si>
+  <si>
+    <t>5/10-12/2023</t>
   </si>
 </sst>
 </file>
@@ -647,14 +650,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -664,9 +670,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1589,14 +1592,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -1608,14 +1611,14 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="54"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -1629,14 +1632,14 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -1669,18 +1672,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3850,17 +3853,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -3898,7 +3901,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A9" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3928,14 +3931,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -3947,14 +3950,14 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="54"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -3968,16 +3971,16 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="G4" s="54"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -4010,18 +4013,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -4078,7 +4081,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>135.75</v>
+        <v>132.75</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -4481,7 +4484,9 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="42"/>
-      <c r="B28" s="21"/>
+      <c r="B28" s="21" t="s">
+        <v>45</v>
+      </c>
       <c r="C28" s="14"/>
       <c r="D28" s="41"/>
       <c r="E28" s="10"/>
@@ -4490,10 +4495,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H28" s="41"/>
+      <c r="H28" s="41">
+        <v>3</v>
+      </c>
       <c r="I28" s="10"/>
       <c r="J28" s="12"/>
-      <c r="K28" s="21"/>
+      <c r="K28" s="21" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="42"/>

--- a/NEW HR/FLORES, RICHARD.xlsx
+++ b/NEW HR/FLORES, RICHARD.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="73">
   <si>
     <t>PERIOD</t>
   </si>
@@ -260,6 +260,9 @@
   </si>
   <si>
     <t>5/10-12/2023</t>
+  </si>
+  <si>
+    <t>5/19,20,22/2023</t>
   </si>
 </sst>
 </file>
@@ -650,17 +653,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -670,6 +670,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1592,14 +1595,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -1611,14 +1614,14 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="53"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -1632,14 +1635,14 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -1672,18 +1675,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3853,17 +3856,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -3899,9 +3902,9 @@
   <dimension ref="A2:K75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A9" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A15" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
+      <selection pane="bottomLeft" activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3931,14 +3934,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -3950,14 +3953,14 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="53"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -3971,16 +3974,16 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="G4" s="53"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -4013,18 +4016,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -4081,7 +4084,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>132.75</v>
+        <v>129.75</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -4506,7 +4509,9 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="42"/>
-      <c r="B29" s="21"/>
+      <c r="B29" s="21" t="s">
+        <v>45</v>
+      </c>
       <c r="C29" s="14"/>
       <c r="D29" s="41"/>
       <c r="E29" s="10"/>
@@ -4515,10 +4520,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H29" s="41"/>
+      <c r="H29" s="41">
+        <v>3</v>
+      </c>
       <c r="I29" s="10"/>
       <c r="J29" s="12"/>
-      <c r="K29" s="21"/>
+      <c r="K29" s="21" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="42"/>

--- a/NEW HR/FLORES, RICHARD.xlsx
+++ b/NEW HR/FLORES, RICHARD.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="73">
   <si>
     <t>PERIOD</t>
   </si>
@@ -653,14 +653,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -670,9 +673,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1595,14 +1595,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -1614,14 +1614,14 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="54"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -1635,14 +1635,14 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -1675,18 +1675,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3856,17 +3856,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -3902,9 +3902,9 @@
   <dimension ref="A2:K75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A15" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A13" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="K30" sqref="K30"/>
+      <selection pane="bottomLeft" activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3934,14 +3934,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -3953,14 +3953,14 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="54"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -3974,16 +3974,16 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="G4" s="54"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -4016,18 +4016,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -4084,7 +4084,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>129.75</v>
+        <v>128.75</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -4530,8 +4530,12 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="42"/>
-      <c r="B30" s="21"/>
+      <c r="A30" s="42">
+        <v>45078</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>49</v>
+      </c>
       <c r="C30" s="14"/>
       <c r="D30" s="41"/>
       <c r="E30" s="10"/>
@@ -4540,10 +4544,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H30" s="41"/>
+      <c r="H30" s="41">
+        <v>1</v>
+      </c>
       <c r="I30" s="10"/>
       <c r="J30" s="12"/>
-      <c r="K30" s="21"/>
+      <c r="K30" s="51">
+        <v>45090</v>
+      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="42"/>

--- a/NEW HR/FLORES, RICHARD.xlsx
+++ b/NEW HR/FLORES, RICHARD.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5138B6AC-1A3D-4FDF-BAC4-6C2948DD268A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="4" r:id="rId1"/>
@@ -27,7 +26,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="75">
   <si>
     <t>PERIOD</t>
   </si>
@@ -259,12 +258,15 @@
   </si>
   <si>
     <t>7/4-5/2023</t>
+  </si>
+  <si>
+    <t>7/14,19,20/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -643,14 +645,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -660,9 +665,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1174,7 +1176,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1191,25 +1193,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K122" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K122" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1221,25 +1223,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K75" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K75" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1546,34 +1548,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A73" activePane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A73" activePane="bottomLeft"/>
       <selection activeCell="O8" sqref="O8"/>
       <selection pane="bottomLeft" activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1585,16 +1587,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1603,16 +1605,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1623,16 +1625,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1640,7 +1642,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1653,24 +1655,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1705,7 +1707,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1729,7 +1731,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -1751,7 +1753,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -1771,7 +1773,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -1791,7 +1793,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -1811,7 +1813,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -1831,7 +1833,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -1851,7 +1853,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <v>43252</v>
       </c>
@@ -1871,7 +1873,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -1891,7 +1893,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <f>EDATE(A17,1)</f>
         <v>43313</v>
@@ -1912,7 +1914,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <f>EDATE(A18,1)</f>
         <v>43344</v>
@@ -1933,7 +1935,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -1953,7 +1955,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -1973,7 +1975,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -1997,7 +1999,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="49"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>48</v>
       </c>
@@ -2015,7 +2017,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -2035,7 +2037,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -2061,7 +2063,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -2087,7 +2089,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -2107,7 +2109,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -2127,7 +2129,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -2147,7 +2149,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -2167,7 +2169,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -2187,7 +2189,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -2207,7 +2209,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -2227,7 +2229,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -2247,7 +2249,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -2267,7 +2269,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>58</v>
       </c>
@@ -2285,7 +2287,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43831</v>
       </c>
@@ -2305,7 +2307,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43862</v>
       </c>
@@ -2325,7 +2327,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43891</v>
       </c>
@@ -2345,7 +2347,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43922</v>
       </c>
@@ -2365,7 +2367,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43952</v>
       </c>
@@ -2385,7 +2387,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43983</v>
       </c>
@@ -2405,7 +2407,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>44013</v>
       </c>
@@ -2425,7 +2427,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>44044</v>
       </c>
@@ -2445,7 +2447,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44075</v>
       </c>
@@ -2465,7 +2467,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>44105</v>
       </c>
@@ -2485,7 +2487,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44136</v>
       </c>
@@ -2505,7 +2507,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44166</v>
       </c>
@@ -2529,7 +2531,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
         <v>60</v>
       </c>
@@ -2547,7 +2549,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44197</v>
       </c>
@@ -2567,7 +2569,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44228</v>
       </c>
@@ -2587,7 +2589,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44256</v>
       </c>
@@ -2607,7 +2609,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44287</v>
       </c>
@@ -2627,7 +2629,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44317</v>
       </c>
@@ -2647,7 +2649,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44348</v>
       </c>
@@ -2667,7 +2669,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44378</v>
       </c>
@@ -2687,7 +2689,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44409</v>
       </c>
@@ -2707,7 +2709,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44440</v>
       </c>
@@ -2727,7 +2729,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44470</v>
       </c>
@@ -2747,7 +2749,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44501</v>
       </c>
@@ -2767,7 +2769,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44531</v>
       </c>
@@ -2791,7 +2793,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="48" t="s">
         <v>61</v>
       </c>
@@ -2809,7 +2811,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44562</v>
       </c>
@@ -2829,7 +2831,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44593</v>
       </c>
@@ -2849,7 +2851,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44621</v>
       </c>
@@ -2869,7 +2871,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44652</v>
       </c>
@@ -2889,7 +2891,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44682</v>
       </c>
@@ -2915,7 +2917,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44713</v>
       </c>
@@ -2935,7 +2937,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44743</v>
       </c>
@@ -2955,7 +2957,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44774</v>
       </c>
@@ -2975,7 +2977,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44805</v>
       </c>
@@ -2995,7 +2997,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44835</v>
       </c>
@@ -3015,7 +3017,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44866</v>
       </c>
@@ -3035,7 +3037,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44896</v>
       </c>
@@ -3059,7 +3061,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="48" t="s">
         <v>66</v>
       </c>
@@ -3077,7 +3079,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44957</v>
       </c>
@@ -3097,7 +3099,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44985</v>
       </c>
@@ -3117,7 +3119,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>45016</v>
       </c>
@@ -3137,7 +3139,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>45046</v>
       </c>
@@ -3157,7 +3159,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>45077</v>
       </c>
@@ -3177,7 +3179,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>45107</v>
       </c>
@@ -3197,7 +3199,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -3213,7 +3215,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -3229,7 +3231,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -3245,7 +3247,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -3261,7 +3263,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -3277,7 +3279,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -3293,7 +3295,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -3309,7 +3311,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -3325,7 +3327,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -3341,7 +3343,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -3357,7 +3359,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -3373,7 +3375,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -3389,7 +3391,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -3405,7 +3407,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -3421,7 +3423,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -3437,7 +3439,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -3453,7 +3455,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -3469,7 +3471,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -3485,7 +3487,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -3501,7 +3503,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -3517,7 +3519,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -3533,7 +3535,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3549,7 +3551,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3565,7 +3567,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3581,7 +3583,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -3597,7 +3599,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -3613,7 +3615,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -3629,7 +3631,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -3645,7 +3647,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -3661,7 +3663,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -3677,7 +3679,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -3693,7 +3695,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -3709,7 +3711,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -3725,7 +3727,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -3741,7 +3743,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -3757,7 +3759,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -3773,7 +3775,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -3789,7 +3791,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -3805,7 +3807,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -3821,7 +3823,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -3837,7 +3839,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="41"/>
       <c r="B122" s="15"/>
       <c r="C122" s="42"/>
@@ -3855,23 +3857,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3894,34 +3896,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K75"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A7" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A16" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
+      <selection pane="bottomLeft" activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3933,16 +3935,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3951,16 +3953,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3971,18 +3973,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3990,7 +3992,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4003,24 +4005,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4055,7 +4057,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4074,12 +4076,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>128.75</v>
+        <v>125.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -4101,7 +4103,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43221</v>
       </c>
@@ -4125,7 +4127,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="41">
         <v>43252</v>
       </c>
@@ -4149,7 +4151,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43435</v>
       </c>
@@ -4173,7 +4175,7 @@
         <v>43440</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="48" t="s">
         <v>48</v>
       </c>
@@ -4191,7 +4193,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43678</v>
       </c>
@@ -4213,7 +4215,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43709</v>
       </c>
@@ -4237,7 +4239,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43770</v>
       </c>
@@ -4261,7 +4263,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43800</v>
       </c>
@@ -4279,7 +4281,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="48" t="s">
         <v>58</v>
       </c>
@@ -4297,7 +4299,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43862</v>
       </c>
@@ -4321,7 +4323,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="48" t="s">
         <v>61</v>
       </c>
@@ -4339,7 +4341,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>44743</v>
       </c>
@@ -4363,7 +4365,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>44774</v>
       </c>
@@ -4387,7 +4389,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="48" t="s">
         <v>66</v>
       </c>
@@ -4405,7 +4407,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>44927</v>
       </c>
@@ -4429,7 +4431,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>55</v>
@@ -4451,7 +4453,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>45047</v>
       </c>
@@ -4475,7 +4477,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>45</v>
@@ -4497,7 +4499,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>45</v>
@@ -4519,7 +4521,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>45078</v>
       </c>
@@ -4543,7 +4545,7 @@
         <v>45090</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>53</v>
@@ -4565,9 +4567,13 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="40"/>
-      <c r="B32" s="20"/>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="40">
+        <v>45108</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C32" s="13"/>
       <c r="D32" s="39"/>
       <c r="E32" s="9"/>
@@ -4576,12 +4582,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H32" s="39"/>
+      <c r="H32" s="39">
+        <v>3</v>
+      </c>
       <c r="I32" s="9"/>
       <c r="J32" s="11"/>
-      <c r="K32" s="20"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K32" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -4597,7 +4607,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -4613,7 +4623,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -4629,7 +4639,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -4645,7 +4655,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -4661,7 +4671,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -4677,7 +4687,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -4693,7 +4703,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -4709,7 +4719,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -4725,7 +4735,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -4741,7 +4751,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -4757,7 +4767,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -4773,7 +4783,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -4789,7 +4799,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -4805,7 +4815,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -4821,7 +4831,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -4837,7 +4847,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -4853,7 +4863,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -4869,7 +4879,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -4885,7 +4895,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -4901,7 +4911,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -4917,7 +4927,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -4933,7 +4943,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -4949,7 +4959,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -4965,7 +4975,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -4981,7 +4991,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -4997,7 +5007,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -5013,7 +5023,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -5029,7 +5039,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -5045,7 +5055,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -5061,7 +5071,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -5077,7 +5087,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -5093,7 +5103,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -5109,7 +5119,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -5125,7 +5135,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -5141,7 +5151,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -5157,7 +5167,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -5173,7 +5183,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -5189,7 +5199,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -5205,7 +5215,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -5221,7 +5231,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -5237,7 +5247,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -5253,7 +5263,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="41"/>
       <c r="B75" s="15"/>
       <c r="C75" s="42"/>
@@ -5284,10 +5294,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5310,28 +5320,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -5344,7 +5354,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5373,7 +5383,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>127.869</v>
       </c>
@@ -5397,17 +5407,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -5428,7 +5438,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -5455,7 +5465,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -5481,7 +5491,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -5507,7 +5517,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -5533,7 +5543,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -5559,7 +5569,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -5585,7 +5595,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -5611,7 +5621,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -5637,7 +5647,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -5657,7 +5667,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -5677,7 +5687,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -5697,7 +5707,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -5718,7 +5728,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -5739,7 +5749,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -5760,7 +5770,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -5781,7 +5791,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -5802,7 +5812,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -5823,7 +5833,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -5844,7 +5854,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -5865,7 +5875,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -5886,7 +5896,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -5907,7 +5917,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -5928,7 +5938,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -5949,7 +5959,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -5970,7 +5980,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -5991,7 +6001,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -6012,7 +6022,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -6033,7 +6043,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -6054,7 +6064,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -6075,7 +6085,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -6096,7 +6106,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -6117,7 +6127,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -6126,7 +6136,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -6135,7 +6145,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -6144,7 +6154,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -6153,7 +6163,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -6162,7 +6172,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -6171,7 +6181,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -6180,7 +6190,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -6189,7 +6199,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -6198,7 +6208,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -6207,7 +6217,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -6216,7 +6226,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -6225,7 +6235,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -6234,7 +6244,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -6243,7 +6253,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -6252,7 +6262,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -6261,7 +6271,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -6270,7 +6280,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -6279,7 +6289,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -6288,7 +6298,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -6297,7 +6307,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -6306,7 +6316,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -6315,7 +6325,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -6324,7 +6334,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -6333,7 +6343,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -6342,7 +6352,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -6351,7 +6361,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -6360,7 +6370,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -6369,7 +6379,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -6378,7 +6388,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/FLORES, RICHARD.xlsx
+++ b/NEW HR/FLORES, RICHARD.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="77">
   <si>
     <t>PERIOD</t>
   </si>
@@ -261,6 +261,12 @@
   </si>
   <si>
     <t>7/14,19,20/2023</t>
+  </si>
+  <si>
+    <t>8/7,8/2023</t>
+  </si>
+  <si>
+    <t>9/18-20/2023</t>
   </si>
 </sst>
 </file>
@@ -1554,10 +1560,10 @@
   </sheetPr>
   <dimension ref="A2:K122"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A73" activePane="bottomLeft"/>
       <selection activeCell="O8" sqref="O8"/>
-      <selection pane="bottomLeft" activeCell="J57" sqref="J57"/>
+      <selection pane="bottomLeft" activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1716,7 +1722,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>57.5</v>
+        <v>58.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1726,7 +1732,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>82.5</v>
+        <v>83.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3200,15 +3206,19 @@
       <c r="K81" s="20"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="40"/>
+      <c r="A82" s="40">
+        <v>45108</v>
+      </c>
       <c r="B82" s="20"/>
-      <c r="C82" s="13"/>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
@@ -3216,7 +3226,9 @@
       <c r="K82" s="20"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="40"/>
+      <c r="A83" s="40">
+        <v>45139</v>
+      </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
       <c r="D83" s="39"/>
@@ -3902,10 +3914,10 @@
   </sheetPr>
   <dimension ref="A2:K75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A16" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="I32" sqref="I32"/>
+      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4076,7 +4088,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>125.75</v>
+        <v>120.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4592,8 +4604,12 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
-      <c r="B33" s="20"/>
+      <c r="A33" s="40">
+        <v>45153</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C33" s="13"/>
       <c r="D33" s="39"/>
       <c r="E33" s="9"/>
@@ -4602,14 +4618,22 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H33" s="39"/>
+      <c r="H33" s="39">
+        <v>2</v>
+      </c>
       <c r="I33" s="9"/>
       <c r="J33" s="11"/>
-      <c r="K33" s="20"/>
+      <c r="K33" s="20" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="40"/>
-      <c r="B34" s="20"/>
+      <c r="A34" s="40">
+        <v>45170</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C34" s="13"/>
       <c r="D34" s="39"/>
       <c r="E34" s="9"/>
@@ -4618,10 +4642,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H34" s="39"/>
+      <c r="H34" s="39">
+        <v>3</v>
+      </c>
       <c r="I34" s="9"/>
       <c r="J34" s="11"/>
-      <c r="K34" s="20"/>
+      <c r="K34" s="20" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
